--- a/CRUDE/CRUDE-AllDistributions.xlsx
+++ b/CRUDE/CRUDE-AllDistributions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/CRUDE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="E6FC85D721AFD22DE3C8BBCA75D3DE46266A7960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A2FD30-8F5A-448A-8EA8-88D15C5884B6}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="E6FC85D721AFD22DE3C8BBCA75D3DE46266A7960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7463117C-625E-4E1B-AA4D-F955D08DAD0F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>https://cwendorf.github.io/BASE/CRUDE</t>
   </si>
   <si>
-    <t>Version: 2.20210627</t>
-  </si>
-  <si>
     <t>CRUDE: Course Resource for Understanding Distributions with Excel</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>Separate versions of the file can be saved for different demonstrations.</t>
   </si>
   <si>
-    <t>CRUDE: Course Resource for Understanding Distributions with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
     <t>Introduction:</t>
   </si>
   <si>
@@ -253,7 +247,13 @@
     <t>df</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
+  </si>
+  <si>
+    <t>CRUDE: Course Resource for Understanding Distributions with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -263,10 +263,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -512,229 +519,232 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7563,6 +7573,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7913,7 +7927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E07CE7-A585-4EF4-BD7A-0B94397D9B6F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -7939,7 +7953,7 @@
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
@@ -7962,7 +7976,7 @@
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
@@ -7973,7 +7987,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="78" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="L3" s="78"/>
       <c r="M3" s="78"/>
@@ -8017,7 +8031,7 @@
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -8047,7 +8061,7 @@
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -8058,13 +8072,13 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="71" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -8075,13 +8089,13 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -8092,7 +8106,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8134,7 +8148,7 @@
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -8150,10 +8164,10 @@
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -8165,10 +8179,10 @@
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -8181,10 +8195,10 @@
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -8204,7 +8218,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="K18" s="74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8248,12 +8262,12 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -8261,8 +8275,8 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="K23" s="71" t="s">
-        <v>43</v>
+      <c r="K23" s="82" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8324,7 +8338,7 @@
   <sheetData>
     <row r="2" spans="2:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="11"/>
       <c r="M2" s="12"/>
@@ -8379,7 +8393,7 @@
     </row>
     <row r="4" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -8443,7 +8457,7 @@
     </row>
     <row r="6" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="41">
         <v>0</v>
@@ -8479,7 +8493,7 @@
     </row>
     <row r="7" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
@@ -8553,7 +8567,7 @@
     </row>
     <row r="9" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="39"/>
       <c r="F9" s="61"/>
@@ -8668,7 +8682,7 @@
     </row>
     <row r="12" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="11" t="str">
@@ -8710,7 +8724,7 @@
     </row>
     <row r="13" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="11" t="str">
@@ -8788,7 +8802,7 @@
     </row>
     <row r="15" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="25"/>
       <c r="F15" s="73"/>
@@ -8902,7 +8916,7 @@
     </row>
     <row r="18" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11" t="str">
         <f>IFERROR(NORMINV(D18,$C$6,$C$7),"")</f>
@@ -8945,7 +8959,7 @@
     </row>
     <row r="19" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="11" t="str">
         <f>IFERROR(NORMINV(D19,$C$6,$C$7),"")</f>
@@ -16393,7 +16407,7 @@
   <sheetData>
     <row r="2" spans="2:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="13"/>
@@ -16447,7 +16461,7 @@
     </row>
     <row r="4" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
@@ -16513,7 +16527,7 @@
     </row>
     <row r="6" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="30"/>
@@ -16614,7 +16628,7 @@
     </row>
     <row r="9" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="10"/>
@@ -16727,7 +16741,7 @@
     </row>
     <row r="12" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="11" t="str">
@@ -16768,7 +16782,7 @@
     </row>
     <row r="13" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="11" t="str">
@@ -16850,7 +16864,7 @@
     </row>
     <row r="15" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
@@ -16961,7 +16975,7 @@
     </row>
     <row r="18" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11" t="str">
         <f>IF(D18="","",IF(D18&gt;0.5,TINV((1-D18)*2,$C$6),-TINV(D18*2,$C$6)))</f>
@@ -17004,7 +17018,7 @@
     </row>
     <row r="19" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="11" t="str">
         <f>IF(D19="","",IF(D19&gt;0.5,TINV((1-D19)*2,$C$6),-TINV(D19*2,$C$6)))</f>
@@ -24456,7 +24470,7 @@
   <sheetData>
     <row r="2" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="81"/>
@@ -24507,7 +24521,7 @@
     </row>
     <row r="4" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
@@ -24575,7 +24589,7 @@
     </row>
     <row r="6" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="29"/>
       <c r="E6" s="30"/>
@@ -24612,7 +24626,7 @@
     </row>
     <row r="7" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="29"/>
       <c r="E7" s="30"/>
@@ -24691,7 +24705,7 @@
     </row>
     <row r="9" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -24819,7 +24833,7 @@
     </row>
     <row r="12" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="11" t="str">
@@ -24865,7 +24879,7 @@
     </row>
     <row r="13" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="11" t="str">
@@ -24954,7 +24968,7 @@
     </row>
     <row r="15" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -25075,7 +25089,7 @@
     </row>
     <row r="18" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11" t="str">
         <f>IF(D18="","",FINV(1-D18,$C$6,$C$7))</f>
@@ -25118,7 +25132,7 @@
     </row>
     <row r="19" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="11" t="str">
         <f>IF(D19="","",FINV(1-D19,$C$6,$C$7))</f>

--- a/CRUDE/CRUDE-AllDistributions.xlsx
+++ b/CRUDE/CRUDE-AllDistributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/CRUDE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/CRUDE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="E6FC85D721AFD22DE3C8BBCA75D3DE46266A7960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7463117C-625E-4E1B-AA4D-F955D08DAD0F}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="E6FC85D721AFD22DE3C8BBCA75D3DE46266A7960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5264AB28-7A99-4BF6-AFF7-531FC351A948}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="30" r:id="rId1"/>
@@ -722,6 +722,9 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -742,9 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7573,10 +7573,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7927,7 +7923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E07CE7-A585-4EF4-BD7A-0B94397D9B6F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -7952,72 +7948,72 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -8275,7 +8271,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="K23" s="82" t="s">
+      <c r="K23" s="76" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8289,7 +8285,7 @@
       <c r="K25" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -24469,11 +24465,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
       <c r="G2" s="11"/>
       <c r="M2" s="12"/>
       <c r="N2" s="13"/>

--- a/CRUDE/CRUDE-AllDistributions.xlsx
+++ b/CRUDE/CRUDE-AllDistributions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/CRUDE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="E6FC85D721AFD22DE3C8BBCA75D3DE46266A7960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5264AB28-7A99-4BF6-AFF7-531FC351A948}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="E6FC85D721AFD22DE3C8BBCA75D3DE46266A7960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7615839-8D6A-4FE9-9F0C-745D33E523C2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>For all tabs, only information in yellow cells should be altered.</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/CRUDE</t>
-  </si>
-  <si>
     <t>CRUDE: Course Resource for Understanding Distributions with Excel</t>
   </si>
   <si>
@@ -247,13 +244,16 @@
     <t>df</t>
   </si>
   <si>
-    <t>Version: 2.210601</t>
-  </si>
-  <si>
     <t>Wendorf, C. A. (2021).</t>
   </si>
   <si>
     <t>CRUDE: Course Resource for Understanding Distributions with Excel [Excel Spreadsheets].</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/CRUDE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -7573,6 +7573,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7924,7 +7928,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7949,7 +7953,7 @@
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -7972,7 +7976,7 @@
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
@@ -7983,7 +7987,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="79" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" s="79"/>
       <c r="M3" s="79"/>
@@ -8006,7 +8010,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="80" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="L4" s="79"/>
       <c r="M4" s="79"/>
@@ -8027,7 +8031,7 @@
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -8057,7 +8061,7 @@
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -8068,13 +8072,13 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -8085,13 +8089,13 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -8102,7 +8106,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8144,7 +8148,7 @@
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -8160,10 +8164,10 @@
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -8175,10 +8179,10 @@
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -8191,10 +8195,10 @@
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -8214,7 +8218,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="K18" s="74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8258,12 +8262,12 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -8272,13 +8276,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="K23" s="76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="K24" s="10" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8334,7 +8338,7 @@
   <sheetData>
     <row r="2" spans="2:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="11"/>
       <c r="M2" s="12"/>
@@ -8389,7 +8393,7 @@
     </row>
     <row r="4" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -8453,7 +8457,7 @@
     </row>
     <row r="6" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="41">
         <v>0</v>
@@ -8489,7 +8493,7 @@
     </row>
     <row r="7" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
@@ -8563,7 +8567,7 @@
     </row>
     <row r="9" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="39"/>
       <c r="F9" s="61"/>
@@ -8678,7 +8682,7 @@
     </row>
     <row r="12" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="11" t="str">
@@ -8720,7 +8724,7 @@
     </row>
     <row r="13" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="11" t="str">
@@ -8798,7 +8802,7 @@
     </row>
     <row r="15" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="25"/>
       <c r="F15" s="73"/>
@@ -8912,7 +8916,7 @@
     </row>
     <row r="18" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11" t="str">
         <f>IFERROR(NORMINV(D18,$C$6,$C$7),"")</f>
@@ -8955,7 +8959,7 @@
     </row>
     <row r="19" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11" t="str">
         <f>IFERROR(NORMINV(D19,$C$6,$C$7),"")</f>
@@ -16403,7 +16407,7 @@
   <sheetData>
     <row r="2" spans="2:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="13"/>
@@ -16457,7 +16461,7 @@
     </row>
     <row r="4" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
@@ -16523,7 +16527,7 @@
     </row>
     <row r="6" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="30"/>
@@ -16624,7 +16628,7 @@
     </row>
     <row r="9" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="10"/>
@@ -16737,7 +16741,7 @@
     </row>
     <row r="12" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="11" t="str">
@@ -16778,7 +16782,7 @@
     </row>
     <row r="13" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="11" t="str">
@@ -16860,7 +16864,7 @@
     </row>
     <row r="15" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
@@ -16971,7 +16975,7 @@
     </row>
     <row r="18" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11" t="str">
         <f>IF(D18="","",IF(D18&gt;0.5,TINV((1-D18)*2,$C$6),-TINV(D18*2,$C$6)))</f>
@@ -17014,7 +17018,7 @@
     </row>
     <row r="19" spans="2:36" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11" t="str">
         <f>IF(D19="","",IF(D19&gt;0.5,TINV((1-D19)*2,$C$6),-TINV(D19*2,$C$6)))</f>
@@ -24466,7 +24470,7 @@
   <sheetData>
     <row r="2" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="82"/>
       <c r="D2" s="82"/>
@@ -24517,7 +24521,7 @@
     </row>
     <row r="4" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
@@ -24585,7 +24589,7 @@
     </row>
     <row r="6" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="29"/>
       <c r="E6" s="30"/>
@@ -24622,7 +24626,7 @@
     </row>
     <row r="7" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="29"/>
       <c r="E7" s="30"/>
@@ -24701,7 +24705,7 @@
     </row>
     <row r="9" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -24829,7 +24833,7 @@
     </row>
     <row r="12" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="11" t="str">
@@ -24875,7 +24879,7 @@
     </row>
     <row r="13" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="11" t="str">
@@ -24964,7 +24968,7 @@
     </row>
     <row r="15" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -25085,7 +25089,7 @@
     </row>
     <row r="18" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11" t="str">
         <f>IF(D18="","",FINV(1-D18,$C$6,$C$7))</f>
@@ -25128,7 +25132,7 @@
     </row>
     <row r="19" spans="2:37" s="20" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11" t="str">
         <f>IF(D19="","",FINV(1-D19,$C$6,$C$7))</f>

--- a/CRUDE/CRUDE-AllDistributions.xlsx
+++ b/CRUDE/CRUDE-AllDistributions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/CRUDE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="E6FC85D721AFD22DE3C8BBCA75D3DE46266A7960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7615839-8D6A-4FE9-9F0C-745D33E523C2}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="E6FC85D721AFD22DE3C8BBCA75D3DE46266A7960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4658DA40-6B9A-41F0-83A0-8A4C84A01FA5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7573,10 +7573,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
